--- a/Artificial_Intelligence/Tài Liệu/baitap_dodgem.xlsx
+++ b/Artificial_Intelligence/Tài Liệu/baitap_dodgem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LQT\Artificial_Intelligence\Tài Liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53F140D-483B-4EC0-865F-78502B805393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89AC982-7D30-47E3-BF91-EA0F1C217BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cây trò chơi  Dodgem" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,31 +277,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,16 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4099,15 +4099,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>119743</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83458</xdr:rowOff>
+      <xdr:colOff>147451</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>7257</xdr:colOff>
+      <xdr:colOff>34965</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>45358</xdr:rowOff>
+      <xdr:rowOff>156195</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4122,8 +4122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8773886" y="5831115"/>
-          <a:ext cx="4949371" cy="484414"/>
+          <a:off x="8958942" y="6137895"/>
+          <a:ext cx="5041405" cy="502227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9959,10 +9959,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10230,8 +10226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:EG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BL78" sqref="BL78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BQ135" sqref="BQ135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10264,59 +10260,59 @@
       </c>
     </row>
     <row r="12" spans="9:129" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U12" s="7">
-        <v>1</v>
-      </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="BG12" s="7">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
-      <c r="DB12" s="7"/>
-      <c r="DC12" s="7">
-        <v>1</v>
-      </c>
-      <c r="DD12" s="7"/>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="BG12" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="DB12" s="4"/>
+      <c r="DC12" s="4">
+        <v>1</v>
+      </c>
+      <c r="DD12" s="4"/>
     </row>
     <row r="13" spans="9:129" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U13" s="7"/>
-      <c r="V13" s="7">
-        <v>1</v>
-      </c>
-      <c r="W13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="8"/>
-      <c r="BI13" s="7"/>
-      <c r="DB13" s="7">
-        <v>1</v>
-      </c>
-      <c r="DC13" s="8"/>
-      <c r="DD13" s="7"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="4"/>
+      <c r="DB13" s="4">
+        <v>1</v>
+      </c>
+      <c r="DC13" s="5"/>
+      <c r="DD13" s="4"/>
     </row>
     <row r="14" spans="9:129" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U14" s="7"/>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="7">
-        <v>1</v>
-      </c>
-      <c r="BH14" s="7">
-        <v>0</v>
-      </c>
-      <c r="BI14" s="7">
-        <v>0</v>
-      </c>
-      <c r="DB14" s="7"/>
-      <c r="DC14" s="7">
-        <v>0</v>
-      </c>
-      <c r="DD14" s="7">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="4">
+        <v>0</v>
+      </c>
+      <c r="DB14" s="4"/>
+      <c r="DC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="DD14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10446,565 +10442,565 @@
       <c r="DY18" s="2"/>
     </row>
     <row r="23" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AH23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AY23" s="7">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BC23" s="7">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7">
-        <v>1</v>
-      </c>
-      <c r="BN23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="7"/>
-      <c r="BR23" s="7"/>
-      <c r="BT23" s="7">
-        <v>1</v>
-      </c>
-      <c r="BU23" s="7"/>
-      <c r="BV23" s="7"/>
-      <c r="CC23" s="7"/>
-      <c r="CD23" s="7"/>
-      <c r="CE23" s="7">
-        <v>1</v>
-      </c>
-      <c r="CG23" s="7"/>
-      <c r="CH23" s="7"/>
-      <c r="CI23" s="7"/>
-      <c r="CK23" s="7">
-        <v>1</v>
-      </c>
-      <c r="CL23" s="7">
-        <v>1</v>
-      </c>
-      <c r="CM23" s="7"/>
-      <c r="CO23" s="7"/>
-      <c r="CP23" s="7">
-        <v>1</v>
-      </c>
-      <c r="CQ23" s="7"/>
-      <c r="CX23" s="7">
-        <v>1</v>
-      </c>
-      <c r="CY23" s="7">
-        <v>1</v>
-      </c>
-      <c r="CZ23" s="7"/>
-      <c r="DB23" s="7"/>
-      <c r="DC23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DD23" s="7"/>
-      <c r="DF23" s="7"/>
-      <c r="DG23" s="7"/>
-      <c r="DH23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DO23" s="7"/>
-      <c r="DP23" s="7"/>
-      <c r="DQ23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DS23" s="7"/>
-      <c r="DT23" s="7"/>
-      <c r="DU23" s="7"/>
-      <c r="DW23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DX23" s="7">
-        <v>1</v>
-      </c>
-      <c r="DY23" s="7"/>
-      <c r="EA23" s="7"/>
-      <c r="EB23" s="7">
-        <v>1</v>
-      </c>
-      <c r="EC23" s="7"/>
-      <c r="EE23" s="7"/>
-      <c r="EF23" s="7">
-        <v>1</v>
-      </c>
-      <c r="EG23" s="7"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AH23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AY23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BC23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="4"/>
+      <c r="BP23" s="4"/>
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="4"/>
+      <c r="BT23" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU23" s="4"/>
+      <c r="BV23" s="4"/>
+      <c r="CC23" s="4"/>
+      <c r="CD23" s="4"/>
+      <c r="CE23" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG23" s="4"/>
+      <c r="CH23" s="4"/>
+      <c r="CI23" s="4"/>
+      <c r="CK23" s="4">
+        <v>1</v>
+      </c>
+      <c r="CL23" s="4">
+        <v>1</v>
+      </c>
+      <c r="CM23" s="4"/>
+      <c r="CO23" s="4"/>
+      <c r="CP23" s="4">
+        <v>1</v>
+      </c>
+      <c r="CQ23" s="4"/>
+      <c r="CX23" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY23" s="4">
+        <v>1</v>
+      </c>
+      <c r="CZ23" s="4"/>
+      <c r="DB23" s="4"/>
+      <c r="DC23" s="4">
+        <v>1</v>
+      </c>
+      <c r="DD23" s="4"/>
+      <c r="DF23" s="4"/>
+      <c r="DG23" s="4"/>
+      <c r="DH23" s="4">
+        <v>1</v>
+      </c>
+      <c r="DO23" s="4"/>
+      <c r="DP23" s="4"/>
+      <c r="DQ23" s="4">
+        <v>1</v>
+      </c>
+      <c r="DS23" s="4"/>
+      <c r="DT23" s="4"/>
+      <c r="DU23" s="4"/>
+      <c r="DW23" s="4">
+        <v>1</v>
+      </c>
+      <c r="DX23" s="4">
+        <v>1</v>
+      </c>
+      <c r="DY23" s="4"/>
+      <c r="EA23" s="4"/>
+      <c r="EB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="EC23" s="4"/>
+      <c r="EE23" s="4"/>
+      <c r="EF23" s="4">
+        <v>1</v>
+      </c>
+      <c r="EG23" s="4"/>
     </row>
     <row r="24" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="7"/>
-      <c r="AU24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="7"/>
-      <c r="AY24" s="7">
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="7"/>
-      <c r="BC24" s="7"/>
-      <c r="BD24" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="7"/>
-      <c r="BL24" s="7"/>
-      <c r="BM24" s="7"/>
-      <c r="BN24" s="7">
-        <v>0</v>
-      </c>
-      <c r="BP24" s="7">
-        <v>1</v>
-      </c>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="7">
-        <v>0</v>
-      </c>
-      <c r="BT24" s="7">
-        <v>1</v>
-      </c>
-      <c r="BU24" s="7"/>
-      <c r="BV24" s="7">
-        <v>0</v>
-      </c>
-      <c r="CC24" s="7">
-        <v>1</v>
-      </c>
-      <c r="CD24" s="8"/>
-      <c r="CE24" s="7"/>
-      <c r="CG24" s="7">
-        <v>1</v>
-      </c>
-      <c r="CH24" s="8">
-        <v>1</v>
-      </c>
-      <c r="CI24" s="7"/>
-      <c r="CK24" s="7"/>
-      <c r="CL24" s="8"/>
-      <c r="CM24" s="7"/>
-      <c r="CO24" s="7"/>
-      <c r="CP24" s="8">
-        <v>1</v>
-      </c>
-      <c r="CQ24" s="7"/>
-      <c r="CX24" s="7"/>
-      <c r="CY24" s="8">
-        <v>0</v>
-      </c>
-      <c r="CZ24" s="7"/>
-      <c r="DB24" s="7"/>
-      <c r="DC24" s="8">
-        <v>0</v>
-      </c>
-      <c r="DD24" s="7"/>
-      <c r="DF24" s="7">
-        <v>1</v>
-      </c>
-      <c r="DG24" s="8">
-        <v>0</v>
-      </c>
-      <c r="DH24" s="7"/>
-      <c r="DO24" s="7">
-        <v>1</v>
-      </c>
-      <c r="DP24" s="8"/>
-      <c r="DQ24" s="7">
-        <v>0</v>
-      </c>
-      <c r="DS24" s="7">
-        <v>1</v>
-      </c>
-      <c r="DT24" s="8">
-        <v>1</v>
-      </c>
-      <c r="DU24" s="7">
-        <v>0</v>
-      </c>
-      <c r="DW24" s="7"/>
-      <c r="DX24" s="8"/>
-      <c r="DY24" s="7">
-        <v>0</v>
-      </c>
-      <c r="EA24" s="7"/>
-      <c r="EB24" s="8">
-        <v>1</v>
-      </c>
-      <c r="EC24" s="7">
-        <v>0</v>
-      </c>
-      <c r="EE24" s="7"/>
-      <c r="EF24" s="8"/>
-      <c r="EG24" s="7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="4"/>
+      <c r="AU24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="4"/>
+      <c r="AY24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="4"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ24" s="4"/>
+      <c r="BR24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU24" s="4"/>
+      <c r="BV24" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC24" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD24" s="5"/>
+      <c r="CE24" s="4"/>
+      <c r="CG24" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH24" s="5">
+        <v>1</v>
+      </c>
+      <c r="CI24" s="4"/>
+      <c r="CK24" s="4"/>
+      <c r="CL24" s="5"/>
+      <c r="CM24" s="4"/>
+      <c r="CO24" s="4"/>
+      <c r="CP24" s="5">
+        <v>1</v>
+      </c>
+      <c r="CQ24" s="4"/>
+      <c r="CX24" s="4"/>
+      <c r="CY24" s="5">
+        <v>0</v>
+      </c>
+      <c r="CZ24" s="4"/>
+      <c r="DB24" s="4"/>
+      <c r="DC24" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD24" s="4"/>
+      <c r="DF24" s="4">
+        <v>1</v>
+      </c>
+      <c r="DG24" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH24" s="4"/>
+      <c r="DO24" s="4">
+        <v>1</v>
+      </c>
+      <c r="DP24" s="5"/>
+      <c r="DQ24" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS24" s="4">
+        <v>1</v>
+      </c>
+      <c r="DT24" s="5">
+        <v>1</v>
+      </c>
+      <c r="DU24" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW24" s="4"/>
+      <c r="DX24" s="5"/>
+      <c r="DY24" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA24" s="4"/>
+      <c r="EB24" s="5">
+        <v>1</v>
+      </c>
+      <c r="EC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="EE24" s="4"/>
+      <c r="EF24" s="5"/>
+      <c r="EG24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>1</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="7"/>
-      <c r="AQ25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="7"/>
-      <c r="AW25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="7"/>
-      <c r="AZ25" s="7"/>
-      <c r="BA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="7"/>
-      <c r="BD25" s="7">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="7">
-        <v>1</v>
-      </c>
-      <c r="BM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BN25" s="7"/>
-      <c r="BP25" s="7">
-        <v>1</v>
-      </c>
-      <c r="BQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BR25" s="7"/>
-      <c r="BT25" s="7"/>
-      <c r="BU25" s="7">
-        <v>0</v>
-      </c>
-      <c r="BV25" s="7"/>
-      <c r="CC25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CD25" s="7"/>
-      <c r="CE25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CG25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CH25" s="7"/>
-      <c r="CI25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CK25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CL25" s="7"/>
-      <c r="CM25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CP25" s="7"/>
-      <c r="CQ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX25" s="7"/>
-      <c r="CY25" s="7"/>
-      <c r="CZ25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DB25" s="7">
-        <v>1</v>
-      </c>
-      <c r="DC25" s="7"/>
-      <c r="DD25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DF25" s="7"/>
-      <c r="DG25" s="7"/>
-      <c r="DH25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DO25" s="7"/>
-      <c r="DP25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DQ25" s="7"/>
-      <c r="DS25" s="7"/>
-      <c r="DT25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DU25" s="7"/>
-      <c r="DW25" s="7"/>
-      <c r="DX25" s="7">
-        <v>0</v>
-      </c>
-      <c r="DY25" s="7"/>
-      <c r="EA25" s="7"/>
-      <c r="EB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EC25" s="7"/>
-      <c r="EE25" s="7">
-        <v>1</v>
-      </c>
-      <c r="EF25" s="7">
-        <v>0</v>
-      </c>
-      <c r="EG25" s="7"/>
+      <c r="A25" s="4">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="4"/>
+      <c r="AQ25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="4"/>
+      <c r="BP25" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="4"/>
+      <c r="BT25" s="4"/>
+      <c r="BU25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="4"/>
+      <c r="CC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD25" s="4"/>
+      <c r="CE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH25" s="4"/>
+      <c r="CI25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CK25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CL25" s="4"/>
+      <c r="CM25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="4"/>
+      <c r="CQ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="CX25" s="4"/>
+      <c r="CY25" s="4"/>
+      <c r="CZ25" s="4">
+        <v>0</v>
+      </c>
+      <c r="DB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="DC25" s="4"/>
+      <c r="DD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="DF25" s="4"/>
+      <c r="DG25" s="4"/>
+      <c r="DH25" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO25" s="4"/>
+      <c r="DP25" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ25" s="4"/>
+      <c r="DS25" s="4"/>
+      <c r="DT25" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU25" s="4"/>
+      <c r="DW25" s="4"/>
+      <c r="DX25" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY25" s="4"/>
+      <c r="EA25" s="4"/>
+      <c r="EB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="EC25" s="4"/>
+      <c r="EE25" s="4">
+        <v>1</v>
+      </c>
+      <c r="EF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="EG25" s="4"/>
     </row>
     <row r="33" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="J33" s="4" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="J33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="J34" s="3" t="s">
+      <c r="H34" s="14"/>
+      <c r="J34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3" t="s">
+      <c r="K34" s="12"/>
+      <c r="L34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12">
         <v>-40</v>
       </c>
-      <c r="O34" s="3"/>
+      <c r="O34" s="12"/>
     </row>
     <row r="35" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="J35" s="3" t="s">
+      <c r="H35" s="14"/>
+      <c r="J35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3" t="s">
+      <c r="K35" s="12"/>
+      <c r="L35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O35" s="3"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="12"/>
     </row>
     <row r="36" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="J36" s="3" t="s">
+      <c r="H36" s="14"/>
+      <c r="J36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="11" t="s">
+      <c r="K36" s="12"/>
+      <c r="L36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="12"/>
     </row>
     <row r="38" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BP38" s="2">
@@ -11030,59 +11026,59 @@
       </c>
     </row>
     <row r="45" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U45" s="7">
-        <v>1</v>
-      </c>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="BG45" s="7">
-        <v>1</v>
-      </c>
-      <c r="BH45" s="7"/>
-      <c r="BI45" s="7"/>
-      <c r="DB45" s="7"/>
-      <c r="DC45" s="7">
-        <v>1</v>
-      </c>
-      <c r="DD45" s="7"/>
+      <c r="U45" s="4">
+        <v>1</v>
+      </c>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="BG45" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="4"/>
+      <c r="BI45" s="4"/>
+      <c r="DB45" s="4"/>
+      <c r="DC45" s="4">
+        <v>1</v>
+      </c>
+      <c r="DD45" s="4"/>
     </row>
     <row r="46" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U46" s="7"/>
-      <c r="V46" s="7">
-        <v>1</v>
-      </c>
-      <c r="W46" s="7"/>
-      <c r="BG46" s="7"/>
-      <c r="BH46" s="8"/>
-      <c r="BI46" s="7"/>
-      <c r="DB46" s="7">
-        <v>1</v>
-      </c>
-      <c r="DC46" s="8"/>
-      <c r="DD46" s="7"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4">
+        <v>1</v>
+      </c>
+      <c r="W46" s="4"/>
+      <c r="BG46" s="4"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="4"/>
+      <c r="DB46" s="4">
+        <v>1</v>
+      </c>
+      <c r="DC46" s="5"/>
+      <c r="DD46" s="4"/>
     </row>
     <row r="47" spans="3:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U47" s="7"/>
-      <c r="V47" s="7">
-        <v>0</v>
-      </c>
-      <c r="W47" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG47" s="7">
-        <v>1</v>
-      </c>
-      <c r="BH47" s="7">
-        <v>0</v>
-      </c>
-      <c r="BI47" s="7">
-        <v>0</v>
-      </c>
-      <c r="DB47" s="7"/>
-      <c r="DC47" s="7">
-        <v>0</v>
-      </c>
-      <c r="DD47" s="7">
+      <c r="U47" s="4"/>
+      <c r="V47" s="4">
+        <v>0</v>
+      </c>
+      <c r="W47" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG47" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH47" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI47" s="4">
+        <v>0</v>
+      </c>
+      <c r="DB47" s="4"/>
+      <c r="DC47" s="4">
+        <v>0</v>
+      </c>
+      <c r="DD47" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11129,8 +11125,8 @@
         <v>1</v>
       </c>
       <c r="K50" s="2"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="9"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="17"/>
       <c r="AD50" s="2"/>
       <c r="AE50" s="2">
         <v>1</v>
@@ -11138,8 +11134,8 @@
       <c r="AF50" s="2">
         <v>0</v>
       </c>
-      <c r="AG50" s="13"/>
-      <c r="AH50" s="9"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="17"/>
       <c r="AW50" s="2"/>
       <c r="AX50" s="2">
         <v>0</v>
@@ -11216,886 +11212,885 @@
       <c r="DY51" s="2"/>
     </row>
     <row r="56" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="I56" s="7">
-        <v>1</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1</v>
-      </c>
-      <c r="K56" s="7"/>
-      <c r="M56" s="7">
-        <v>1</v>
-      </c>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="Q56" s="7">
-        <v>1</v>
-      </c>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="7"/>
-      <c r="AD56" s="7"/>
-      <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
-      <c r="AH56" s="7">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ56" s="7"/>
-      <c r="AQ56" s="7"/>
-      <c r="AR56" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS56" s="7"/>
-      <c r="AU56" s="7"/>
-      <c r="AV56" s="7"/>
-      <c r="AW56" s="7"/>
-      <c r="AY56" s="7">
-        <v>1</v>
-      </c>
-      <c r="AZ56" s="7"/>
-      <c r="BA56" s="7"/>
-      <c r="BC56" s="7">
-        <v>1</v>
-      </c>
-      <c r="BD56" s="7"/>
-      <c r="BE56" s="7"/>
-      <c r="BL56" s="7"/>
-      <c r="BM56" s="7">
-        <v>1</v>
-      </c>
-      <c r="BN56" s="7"/>
-      <c r="BP56" s="7"/>
-      <c r="BQ56" s="7"/>
-      <c r="BR56" s="7"/>
-      <c r="BT56" s="7">
-        <v>1</v>
-      </c>
-      <c r="BU56" s="7"/>
-      <c r="BV56" s="7"/>
-      <c r="CC56" s="7"/>
-      <c r="CD56" s="7"/>
-      <c r="CE56" s="7">
-        <v>1</v>
-      </c>
-      <c r="CG56" s="7"/>
-      <c r="CH56" s="7"/>
-      <c r="CI56" s="7"/>
-      <c r="CK56" s="7">
-        <v>1</v>
-      </c>
-      <c r="CL56" s="7">
-        <v>1</v>
-      </c>
-      <c r="CM56" s="7"/>
-      <c r="CO56" s="7"/>
-      <c r="CP56" s="7">
-        <v>1</v>
-      </c>
-      <c r="CQ56" s="7"/>
-      <c r="CX56" s="7">
-        <v>1</v>
-      </c>
-      <c r="CY56" s="7">
-        <v>1</v>
-      </c>
-      <c r="CZ56" s="7"/>
-      <c r="DB56" s="7"/>
-      <c r="DC56" s="7">
-        <v>1</v>
-      </c>
-      <c r="DD56" s="7"/>
-      <c r="DF56" s="7"/>
-      <c r="DG56" s="7"/>
-      <c r="DH56" s="7">
-        <v>1</v>
-      </c>
-      <c r="DO56" s="7"/>
-      <c r="DP56" s="7"/>
-      <c r="DQ56" s="7">
-        <v>1</v>
-      </c>
-      <c r="DS56" s="7"/>
-      <c r="DT56" s="7"/>
-      <c r="DU56" s="7"/>
-      <c r="DW56" s="7">
-        <v>1</v>
-      </c>
-      <c r="DX56" s="7">
-        <v>1</v>
-      </c>
-      <c r="DY56" s="7"/>
-      <c r="EA56" s="7"/>
-      <c r="EB56" s="7">
-        <v>1</v>
-      </c>
-      <c r="EC56" s="7"/>
-      <c r="EE56" s="7"/>
-      <c r="EF56" s="7">
-        <v>1</v>
-      </c>
-      <c r="EG56" s="7"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4"/>
+      <c r="M56" s="4">
+        <v>1</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="Q56" s="4">
+        <v>1</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AH56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="4"/>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="4"/>
+      <c r="AU56" s="4"/>
+      <c r="AV56" s="4"/>
+      <c r="AW56" s="4"/>
+      <c r="AY56" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="4"/>
+      <c r="BA56" s="4"/>
+      <c r="BC56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="4"/>
+      <c r="BL56" s="4"/>
+      <c r="BM56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
+      <c r="BT56" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU56" s="4"/>
+      <c r="BV56" s="4"/>
+      <c r="CC56" s="4"/>
+      <c r="CD56" s="4"/>
+      <c r="CE56" s="4">
+        <v>1</v>
+      </c>
+      <c r="CG56" s="4"/>
+      <c r="CH56" s="4"/>
+      <c r="CI56" s="4"/>
+      <c r="CK56" s="4">
+        <v>1</v>
+      </c>
+      <c r="CL56" s="4">
+        <v>1</v>
+      </c>
+      <c r="CM56" s="4"/>
+      <c r="CO56" s="4"/>
+      <c r="CP56" s="4">
+        <v>1</v>
+      </c>
+      <c r="CQ56" s="4"/>
+      <c r="CX56" s="4">
+        <v>1</v>
+      </c>
+      <c r="CY56" s="4">
+        <v>1</v>
+      </c>
+      <c r="CZ56" s="4"/>
+      <c r="DB56" s="4"/>
+      <c r="DC56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DD56" s="4"/>
+      <c r="DF56" s="4"/>
+      <c r="DG56" s="4"/>
+      <c r="DH56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DO56" s="4"/>
+      <c r="DP56" s="4"/>
+      <c r="DQ56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DS56" s="4"/>
+      <c r="DT56" s="4"/>
+      <c r="DU56" s="4"/>
+      <c r="DW56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DX56" s="4">
+        <v>1</v>
+      </c>
+      <c r="DY56" s="4"/>
+      <c r="EA56" s="4"/>
+      <c r="EB56" s="4">
+        <v>1</v>
+      </c>
+      <c r="EC56" s="4"/>
+      <c r="EE56" s="4"/>
+      <c r="EF56" s="4">
+        <v>1</v>
+      </c>
+      <c r="EG56" s="4"/>
     </row>
     <row r="57" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7">
-        <v>1</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="E57" s="7">
-        <v>1</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="7">
-        <v>1</v>
-      </c>
-      <c r="AF57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="7"/>
-      <c r="AR57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="7"/>
-      <c r="AU57" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV57" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW57" s="7"/>
-      <c r="AY57" s="7">
-        <v>1</v>
-      </c>
-      <c r="AZ57" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA57" s="7"/>
-      <c r="BC57" s="7"/>
-      <c r="BD57" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE57" s="7"/>
-      <c r="BL57" s="7"/>
-      <c r="BM57" s="7"/>
-      <c r="BN57" s="7">
-        <v>0</v>
-      </c>
-      <c r="BP57" s="7">
-        <v>1</v>
-      </c>
-      <c r="BQ57" s="7"/>
-      <c r="BR57" s="7">
-        <v>0</v>
-      </c>
-      <c r="BT57" s="7">
-        <v>1</v>
-      </c>
-      <c r="BU57" s="7"/>
-      <c r="BV57" s="7">
-        <v>0</v>
-      </c>
-      <c r="CC57" s="7">
-        <v>1</v>
-      </c>
-      <c r="CD57" s="8"/>
-      <c r="CE57" s="7"/>
-      <c r="CG57" s="7">
-        <v>1</v>
-      </c>
-      <c r="CH57" s="8">
-        <v>1</v>
-      </c>
-      <c r="CI57" s="7"/>
-      <c r="CK57" s="7"/>
-      <c r="CL57" s="8"/>
-      <c r="CM57" s="7"/>
-      <c r="CO57" s="7"/>
-      <c r="CP57" s="8">
-        <v>1</v>
-      </c>
-      <c r="CQ57" s="7"/>
-      <c r="CX57" s="7"/>
-      <c r="CY57" s="8">
-        <v>0</v>
-      </c>
-      <c r="CZ57" s="7"/>
-      <c r="DB57" s="7"/>
-      <c r="DC57" s="8">
-        <v>0</v>
-      </c>
-      <c r="DD57" s="7"/>
-      <c r="DF57" s="7">
-        <v>1</v>
-      </c>
-      <c r="DG57" s="8">
-        <v>0</v>
-      </c>
-      <c r="DH57" s="7"/>
-      <c r="DO57" s="7">
-        <v>1</v>
-      </c>
-      <c r="DP57" s="8"/>
-      <c r="DQ57" s="7">
-        <v>0</v>
-      </c>
-      <c r="DS57" s="7">
-        <v>1</v>
-      </c>
-      <c r="DT57" s="8">
-        <v>1</v>
-      </c>
-      <c r="DU57" s="7">
-        <v>0</v>
-      </c>
-      <c r="DW57" s="7"/>
-      <c r="DX57" s="8"/>
-      <c r="DY57" s="7">
-        <v>0</v>
-      </c>
-      <c r="EA57" s="7"/>
-      <c r="EB57" s="8">
-        <v>1</v>
-      </c>
-      <c r="EC57" s="7">
-        <v>0</v>
-      </c>
-      <c r="EE57" s="7"/>
-      <c r="EF57" s="8"/>
-      <c r="EG57" s="7">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="4"/>
+      <c r="AR57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="4"/>
+      <c r="AU57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="4"/>
+      <c r="AY57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA57" s="4"/>
+      <c r="BC57" s="4"/>
+      <c r="BD57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="4"/>
+      <c r="BL57" s="4"/>
+      <c r="BM57" s="4"/>
+      <c r="BN57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP57" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ57" s="4"/>
+      <c r="BR57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT57" s="4">
+        <v>1</v>
+      </c>
+      <c r="BU57" s="4"/>
+      <c r="BV57" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC57" s="4">
+        <v>1</v>
+      </c>
+      <c r="CD57" s="5"/>
+      <c r="CE57" s="4"/>
+      <c r="CG57" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH57" s="5">
+        <v>1</v>
+      </c>
+      <c r="CI57" s="4"/>
+      <c r="CK57" s="4"/>
+      <c r="CL57" s="5"/>
+      <c r="CM57" s="4"/>
+      <c r="CO57" s="4"/>
+      <c r="CP57" s="5">
+        <v>1</v>
+      </c>
+      <c r="CQ57" s="4"/>
+      <c r="CX57" s="4"/>
+      <c r="CY57" s="5">
+        <v>0</v>
+      </c>
+      <c r="CZ57" s="4"/>
+      <c r="DB57" s="4"/>
+      <c r="DC57" s="5">
+        <v>0</v>
+      </c>
+      <c r="DD57" s="4"/>
+      <c r="DF57" s="4">
+        <v>1</v>
+      </c>
+      <c r="DG57" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH57" s="4"/>
+      <c r="DO57" s="4">
+        <v>1</v>
+      </c>
+      <c r="DP57" s="5"/>
+      <c r="DQ57" s="4">
+        <v>0</v>
+      </c>
+      <c r="DS57" s="4">
+        <v>1</v>
+      </c>
+      <c r="DT57" s="5">
+        <v>1</v>
+      </c>
+      <c r="DU57" s="4">
+        <v>0</v>
+      </c>
+      <c r="DW57" s="4"/>
+      <c r="DX57" s="5"/>
+      <c r="DY57" s="4">
+        <v>0</v>
+      </c>
+      <c r="EA57" s="4"/>
+      <c r="EB57" s="5">
+        <v>1</v>
+      </c>
+      <c r="EC57" s="4">
+        <v>0</v>
+      </c>
+      <c r="EE57" s="4"/>
+      <c r="EF57" s="5"/>
+      <c r="EG57" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>0</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7">
-        <v>0</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7">
-        <v>0</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>0</v>
-      </c>
-      <c r="R58" s="7">
-        <v>1</v>
-      </c>
-      <c r="S58" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="7"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ58" s="7"/>
-      <c r="AQ58" s="7">
-        <v>1</v>
-      </c>
-      <c r="AR58" s="7"/>
-      <c r="AS58" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV58" s="7"/>
-      <c r="AW58" s="7">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="7"/>
-      <c r="AZ58" s="7"/>
-      <c r="BA58" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC58" s="7"/>
-      <c r="BD58" s="7">
-        <v>1</v>
-      </c>
-      <c r="BE58" s="7">
-        <v>0</v>
-      </c>
-      <c r="BL58" s="7">
-        <v>1</v>
-      </c>
-      <c r="BM58" s="7">
-        <v>0</v>
-      </c>
-      <c r="BN58" s="7"/>
-      <c r="BP58" s="7">
-        <v>1</v>
-      </c>
-      <c r="BQ58" s="7">
-        <v>0</v>
-      </c>
-      <c r="BR58" s="7"/>
-      <c r="BT58" s="7"/>
-      <c r="BU58" s="7">
-        <v>0</v>
-      </c>
-      <c r="BV58" s="7"/>
-      <c r="CC58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CD58" s="7"/>
-      <c r="CE58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CG58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CH58" s="7"/>
-      <c r="CI58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CK58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CL58" s="7"/>
-      <c r="CM58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CO58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CP58" s="7"/>
-      <c r="CQ58" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX58" s="7"/>
-      <c r="CY58" s="7"/>
-      <c r="CZ58" s="7">
-        <v>0</v>
-      </c>
-      <c r="DB58" s="7">
-        <v>1</v>
-      </c>
-      <c r="DC58" s="7"/>
-      <c r="DD58" s="7">
-        <v>0</v>
-      </c>
-      <c r="DF58" s="7"/>
-      <c r="DG58" s="7"/>
-      <c r="DH58" s="7">
-        <v>0</v>
-      </c>
-      <c r="DO58" s="7"/>
-      <c r="DP58" s="7">
-        <v>0</v>
-      </c>
-      <c r="DQ58" s="7"/>
-      <c r="DS58" s="7"/>
-      <c r="DT58" s="7">
-        <v>0</v>
-      </c>
-      <c r="DU58" s="7"/>
-      <c r="DW58" s="7"/>
-      <c r="DX58" s="7">
-        <v>0</v>
-      </c>
-      <c r="DY58" s="7"/>
-      <c r="EA58" s="7"/>
-      <c r="EB58" s="7">
-        <v>0</v>
-      </c>
-      <c r="EC58" s="7"/>
-      <c r="EE58" s="7">
-        <v>1</v>
-      </c>
-      <c r="EF58" s="7">
-        <v>0</v>
-      </c>
-      <c r="EG58" s="7"/>
+      <c r="A58" s="4">
+        <v>0</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4">
+        <v>1</v>
+      </c>
+      <c r="S58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="4"/>
+      <c r="AQ58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL58" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="4"/>
+      <c r="BP58" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BR58" s="4"/>
+      <c r="BT58" s="4"/>
+      <c r="BU58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV58" s="4"/>
+      <c r="CC58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CD58" s="4"/>
+      <c r="CE58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CG58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH58" s="4"/>
+      <c r="CI58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CK58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CL58" s="4"/>
+      <c r="CM58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CO58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CP58" s="4"/>
+      <c r="CQ58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CX58" s="4"/>
+      <c r="CY58" s="4"/>
+      <c r="CZ58" s="4">
+        <v>0</v>
+      </c>
+      <c r="DB58" s="4">
+        <v>1</v>
+      </c>
+      <c r="DC58" s="4"/>
+      <c r="DD58" s="4">
+        <v>0</v>
+      </c>
+      <c r="DF58" s="4"/>
+      <c r="DG58" s="4"/>
+      <c r="DH58" s="4">
+        <v>0</v>
+      </c>
+      <c r="DO58" s="4"/>
+      <c r="DP58" s="4">
+        <v>0</v>
+      </c>
+      <c r="DQ58" s="4"/>
+      <c r="DS58" s="4"/>
+      <c r="DT58" s="4">
+        <v>0</v>
+      </c>
+      <c r="DU58" s="4"/>
+      <c r="DW58" s="4"/>
+      <c r="DX58" s="4">
+        <v>0</v>
+      </c>
+      <c r="DY58" s="4"/>
+      <c r="EA58" s="4"/>
+      <c r="EB58" s="4">
+        <v>0</v>
+      </c>
+      <c r="EC58" s="4"/>
+      <c r="EE58" s="4">
+        <v>1</v>
+      </c>
+      <c r="EF58" s="4">
+        <v>0</v>
+      </c>
+      <c r="EG58" s="4"/>
     </row>
     <row r="59" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="15">
         <v>-35</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="E59" s="10">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="E59" s="15">
         <v>-55</v>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="I59" s="10">
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="I59" s="15">
         <v>-55</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="M59" s="10">
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="M59" s="15">
         <v>-105</v>
       </c>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="Q59" s="10">
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="Q59" s="15">
         <v>-5</v>
       </c>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="Z59" s="10">
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="Z59" s="15">
         <v>-45</v>
       </c>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AD59" s="10">
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AD59" s="15">
         <v>35</v>
       </c>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AH59" s="10">
+      <c r="AE59" s="15"/>
+      <c r="AF59" s="15"/>
+      <c r="AH59" s="15">
         <v>-35</v>
       </c>
-      <c r="AI59" s="10"/>
-      <c r="AJ59" s="10"/>
-      <c r="AQ59" s="10">
+      <c r="AI59" s="15"/>
+      <c r="AJ59" s="15"/>
+      <c r="AQ59" s="15">
         <v>-5</v>
       </c>
-      <c r="AR59" s="10"/>
-      <c r="AS59" s="10"/>
-      <c r="AU59" s="10">
+      <c r="AR59" s="15"/>
+      <c r="AS59" s="15"/>
+      <c r="AU59" s="15">
         <v>95</v>
       </c>
-      <c r="AV59" s="10"/>
-      <c r="AW59" s="10"/>
-      <c r="AY59" s="10">
+      <c r="AV59" s="15"/>
+      <c r="AW59" s="15"/>
+      <c r="AY59" s="15">
         <v>55</v>
       </c>
-      <c r="AZ59" s="10"/>
-      <c r="BA59" s="10"/>
-      <c r="BC59" s="10">
+      <c r="AZ59" s="15"/>
+      <c r="BA59" s="15"/>
+      <c r="BC59" s="15">
         <v>45</v>
       </c>
-      <c r="BD59" s="10"/>
-      <c r="BE59" s="10"/>
-      <c r="BL59" s="10">
+      <c r="BD59" s="15"/>
+      <c r="BE59" s="15"/>
+      <c r="BL59" s="15">
         <v>15</v>
       </c>
-      <c r="BM59" s="10"/>
-      <c r="BN59" s="10"/>
-      <c r="BP59" s="10">
+      <c r="BM59" s="15"/>
+      <c r="BN59" s="15"/>
+      <c r="BP59" s="15">
         <v>95</v>
       </c>
-      <c r="BQ59" s="10"/>
-      <c r="BR59" s="10"/>
-      <c r="BT59" s="10">
+      <c r="BQ59" s="15"/>
+      <c r="BR59" s="15"/>
+      <c r="BT59" s="15">
         <v>45</v>
       </c>
-      <c r="BU59" s="10"/>
-      <c r="BV59" s="10"/>
-      <c r="CC59" s="10">
+      <c r="BU59" s="15"/>
+      <c r="BV59" s="15"/>
+      <c r="CC59" s="15">
         <v>-105</v>
       </c>
-      <c r="CD59" s="10"/>
-      <c r="CE59" s="10"/>
-      <c r="CG59" s="10">
+      <c r="CD59" s="15"/>
+      <c r="CE59" s="15"/>
+      <c r="CG59" s="15">
         <v>-55</v>
       </c>
-      <c r="CH59" s="10"/>
-      <c r="CI59" s="10"/>
-      <c r="CK59" s="10">
+      <c r="CH59" s="15"/>
+      <c r="CI59" s="15"/>
+      <c r="CK59" s="15">
         <v>-55</v>
       </c>
-      <c r="CL59" s="10"/>
-      <c r="CM59" s="10"/>
-      <c r="CO59" s="10">
+      <c r="CL59" s="15"/>
+      <c r="CM59" s="15"/>
+      <c r="CO59" s="15">
         <v>-35</v>
       </c>
-      <c r="CP59" s="10"/>
-      <c r="CQ59" s="10"/>
-      <c r="CX59" s="10">
+      <c r="CP59" s="15"/>
+      <c r="CQ59" s="15"/>
+      <c r="CX59" s="15">
         <v>-45</v>
       </c>
-      <c r="CY59" s="10"/>
-      <c r="CZ59" s="10"/>
-      <c r="DB59" s="10">
+      <c r="CY59" s="15"/>
+      <c r="CZ59" s="15"/>
+      <c r="DB59" s="15">
         <v>-5</v>
       </c>
-      <c r="DC59" s="10"/>
-      <c r="DD59" s="10"/>
-      <c r="DF59" s="10">
+      <c r="DC59" s="15"/>
+      <c r="DD59" s="15"/>
+      <c r="DF59" s="15">
         <v>-5</v>
       </c>
-      <c r="DG59" s="10"/>
-      <c r="DH59" s="10"/>
-      <c r="DO59" s="10">
+      <c r="DG59" s="15"/>
+      <c r="DH59" s="15"/>
+      <c r="DO59" s="15">
         <v>-25</v>
       </c>
-      <c r="DP59" s="10"/>
-      <c r="DQ59" s="10"/>
-      <c r="DS59" s="10">
+      <c r="DP59" s="15"/>
+      <c r="DQ59" s="15"/>
+      <c r="DS59" s="15">
         <v>35</v>
       </c>
-      <c r="DT59" s="10"/>
-      <c r="DU59" s="10"/>
-      <c r="DW59" s="10">
+      <c r="DT59" s="15"/>
+      <c r="DU59" s="15"/>
+      <c r="DW59" s="15">
         <v>-35</v>
       </c>
-      <c r="DX59" s="10"/>
-      <c r="DY59" s="10"/>
-      <c r="EA59" s="10">
+      <c r="DX59" s="15"/>
+      <c r="DY59" s="15"/>
+      <c r="EA59" s="15">
         <v>-75</v>
       </c>
-      <c r="EB59" s="10"/>
-      <c r="EC59" s="10"/>
-      <c r="EE59" s="10">
+      <c r="EB59" s="15"/>
+      <c r="EC59" s="15"/>
+      <c r="EE59" s="15">
         <v>15</v>
       </c>
-      <c r="EF59" s="10"/>
-      <c r="EG59" s="10"/>
+      <c r="EF59" s="15"/>
+      <c r="EG59" s="15"/>
     </row>
     <row r="72" spans="21:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB72" s="2"/>
-      <c r="AC72" s="14" t="s">
+      <c r="AC72" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AD72" s="14"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="21"/>
     </row>
     <row r="73" spans="21:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB73" s="21"/>
-      <c r="AC73" s="14" t="s">
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
     </row>
     <row r="74" spans="21:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="BP74" s="18">
+      <c r="BP74" s="7">
         <v>95</v>
       </c>
-      <c r="BQ74" s="19"/>
-      <c r="BR74" s="20"/>
+      <c r="BQ74" s="8"/>
+      <c r="BR74" s="9"/>
     </row>
     <row r="79" spans="21:108" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U79" s="18">
+      <c r="U79" s="7">
         <v>-5</v>
       </c>
-      <c r="V79" s="19"/>
-      <c r="W79" s="20"/>
-      <c r="BG79" s="18">
+      <c r="V79" s="8"/>
+      <c r="W79" s="9"/>
+      <c r="BG79" s="7">
         <v>95</v>
       </c>
-      <c r="BH79" s="19"/>
-      <c r="BI79" s="20"/>
-      <c r="DB79" s="18">
+      <c r="BH79" s="8"/>
+      <c r="BI79" s="9"/>
+      <c r="DB79" s="7">
         <v>-35</v>
       </c>
-      <c r="DC79" s="19"/>
-      <c r="DD79" s="20"/>
+      <c r="DC79" s="8"/>
+      <c r="DD79" s="9"/>
     </row>
     <row r="81" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I81" s="15">
+      <c r="I81" s="18">
         <v>-5</v>
       </c>
-      <c r="J81" s="16"/>
-      <c r="K81" s="17"/>
-      <c r="AD81" s="15">
+      <c r="J81" s="19"/>
+      <c r="K81" s="20"/>
+      <c r="AD81" s="18">
         <v>35</v>
       </c>
-      <c r="AE81" s="16"/>
-      <c r="AF81" s="17"/>
-      <c r="AW81" s="15">
+      <c r="AE81" s="19"/>
+      <c r="AF81" s="20"/>
+      <c r="AW81" s="18">
         <v>95</v>
       </c>
-      <c r="AX81" s="16"/>
-      <c r="AY81" s="17"/>
-      <c r="BP81" s="15">
+      <c r="AX81" s="19"/>
+      <c r="AY81" s="20"/>
+      <c r="BP81" s="18">
         <v>95</v>
       </c>
-      <c r="BQ81" s="16"/>
-      <c r="BR81" s="17"/>
-      <c r="CI81" s="15">
+      <c r="BQ81" s="19"/>
+      <c r="BR81" s="20"/>
+      <c r="CI81" s="18">
         <v>-35</v>
       </c>
-      <c r="CJ81" s="16"/>
-      <c r="CK81" s="17"/>
-      <c r="DB81" s="15">
+      <c r="CJ81" s="19"/>
+      <c r="CK81" s="20"/>
+      <c r="DB81" s="18">
         <v>-5</v>
       </c>
-      <c r="DC81" s="16"/>
-      <c r="DD81" s="17"/>
-      <c r="DW81" s="15">
+      <c r="DC81" s="19"/>
+      <c r="DD81" s="20"/>
+      <c r="DW81" s="18">
         <v>35</v>
       </c>
-      <c r="DX81" s="16"/>
-      <c r="DY81" s="17"/>
+      <c r="DX81" s="19"/>
+      <c r="DY81" s="20"/>
     </row>
     <row r="86" spans="1:137" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18">
+      <c r="A86" s="7">
         <v>-35</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="18">
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="7">
         <v>-55</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="18">
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="7">
         <v>-55</v>
       </c>
-      <c r="J86" s="19"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="18">
+      <c r="J86" s="8"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="7">
         <v>-105</v>
       </c>
-      <c r="N86" s="19"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="18">
+      <c r="N86" s="8"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="7">
         <v>-5</v>
       </c>
-      <c r="R86" s="19"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="18">
+      <c r="R86" s="8"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="7">
         <v>-45</v>
       </c>
-      <c r="AA86" s="19"/>
-      <c r="AB86" s="20"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="18">
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="7">
         <v>35</v>
       </c>
-      <c r="AE86" s="19"/>
-      <c r="AF86" s="20"/>
-      <c r="AG86" s="6"/>
-      <c r="AH86" s="18">
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="9"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="7">
         <v>-35</v>
       </c>
-      <c r="AI86" s="19"/>
-      <c r="AJ86" s="20"/>
-      <c r="AK86" s="6"/>
-      <c r="AL86" s="6"/>
-      <c r="AM86" s="6"/>
-      <c r="AN86" s="6"/>
-      <c r="AO86" s="6"/>
-      <c r="AP86" s="6"/>
-      <c r="AQ86" s="18">
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="9"/>
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="3"/>
+      <c r="AM86" s="3"/>
+      <c r="AN86" s="3"/>
+      <c r="AO86" s="3"/>
+      <c r="AP86" s="3"/>
+      <c r="AQ86" s="7">
         <v>-5</v>
       </c>
-      <c r="AR86" s="19"/>
-      <c r="AS86" s="20"/>
-      <c r="AT86" s="6"/>
-      <c r="AU86" s="18">
+      <c r="AR86" s="8"/>
+      <c r="AS86" s="9"/>
+      <c r="AT86" s="3"/>
+      <c r="AU86" s="7">
         <v>95</v>
       </c>
-      <c r="AV86" s="19"/>
-      <c r="AW86" s="20"/>
-      <c r="AX86" s="6"/>
-      <c r="AY86" s="18">
+      <c r="AV86" s="8"/>
+      <c r="AW86" s="9"/>
+      <c r="AX86" s="3"/>
+      <c r="AY86" s="7">
         <v>55</v>
       </c>
-      <c r="AZ86" s="19"/>
-      <c r="BA86" s="20"/>
-      <c r="BB86" s="6"/>
-      <c r="BC86" s="18">
+      <c r="AZ86" s="8"/>
+      <c r="BA86" s="9"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="7">
         <v>45</v>
       </c>
-      <c r="BD86" s="19"/>
-      <c r="BE86" s="20"/>
-      <c r="BF86" s="6"/>
-      <c r="BG86" s="6"/>
-      <c r="BH86" s="6"/>
-      <c r="BI86" s="6"/>
-      <c r="BJ86" s="6"/>
-      <c r="BK86" s="6"/>
-      <c r="BL86" s="18">
+      <c r="BD86" s="8"/>
+      <c r="BE86" s="9"/>
+      <c r="BF86" s="3"/>
+      <c r="BG86" s="3"/>
+      <c r="BH86" s="3"/>
+      <c r="BI86" s="3"/>
+      <c r="BJ86" s="3"/>
+      <c r="BK86" s="3"/>
+      <c r="BL86" s="7">
         <v>15</v>
       </c>
-      <c r="BM86" s="19"/>
-      <c r="BN86" s="20"/>
-      <c r="BO86" s="6"/>
-      <c r="BP86" s="18">
+      <c r="BM86" s="8"/>
+      <c r="BN86" s="9"/>
+      <c r="BO86" s="3"/>
+      <c r="BP86" s="7">
         <v>95</v>
       </c>
-      <c r="BQ86" s="19"/>
-      <c r="BR86" s="20"/>
-      <c r="BS86" s="6"/>
-      <c r="BT86" s="18">
+      <c r="BQ86" s="8"/>
+      <c r="BR86" s="9"/>
+      <c r="BS86" s="3"/>
+      <c r="BT86" s="7">
         <v>45</v>
       </c>
-      <c r="BU86" s="19"/>
-      <c r="BV86" s="20"/>
-      <c r="BW86" s="6"/>
-      <c r="BX86" s="6"/>
-      <c r="BY86" s="6"/>
-      <c r="BZ86" s="6"/>
-      <c r="CA86" s="6"/>
-      <c r="CB86" s="6"/>
-      <c r="CC86" s="18">
+      <c r="BU86" s="8"/>
+      <c r="BV86" s="9"/>
+      <c r="BW86" s="3"/>
+      <c r="BX86" s="3"/>
+      <c r="BY86" s="3"/>
+      <c r="BZ86" s="3"/>
+      <c r="CA86" s="3"/>
+      <c r="CB86" s="3"/>
+      <c r="CC86" s="7">
         <v>-105</v>
       </c>
-      <c r="CD86" s="19"/>
-      <c r="CE86" s="20"/>
-      <c r="CF86" s="6"/>
-      <c r="CG86" s="18">
+      <c r="CD86" s="8"/>
+      <c r="CE86" s="9"/>
+      <c r="CF86" s="3"/>
+      <c r="CG86" s="7">
         <v>-55</v>
       </c>
-      <c r="CH86" s="19"/>
-      <c r="CI86" s="20"/>
-      <c r="CJ86" s="6"/>
-      <c r="CK86" s="18">
+      <c r="CH86" s="8"/>
+      <c r="CI86" s="9"/>
+      <c r="CJ86" s="3"/>
+      <c r="CK86" s="7">
         <v>-55</v>
       </c>
-      <c r="CL86" s="19"/>
-      <c r="CM86" s="20"/>
-      <c r="CN86" s="6"/>
-      <c r="CO86" s="18">
+      <c r="CL86" s="8"/>
+      <c r="CM86" s="9"/>
+      <c r="CN86" s="3"/>
+      <c r="CO86" s="7">
         <v>-35</v>
       </c>
-      <c r="CP86" s="19"/>
-      <c r="CQ86" s="20"/>
-      <c r="CR86" s="6"/>
-      <c r="CS86" s="6"/>
-      <c r="CT86" s="6"/>
-      <c r="CU86" s="6"/>
-      <c r="CV86" s="6"/>
-      <c r="CW86" s="6"/>
-      <c r="CX86" s="18">
+      <c r="CP86" s="8"/>
+      <c r="CQ86" s="9"/>
+      <c r="CR86" s="3"/>
+      <c r="CS86" s="3"/>
+      <c r="CT86" s="3"/>
+      <c r="CU86" s="3"/>
+      <c r="CV86" s="3"/>
+      <c r="CW86" s="3"/>
+      <c r="CX86" s="7">
         <v>-45</v>
       </c>
-      <c r="CY86" s="19"/>
-      <c r="CZ86" s="20"/>
-      <c r="DA86" s="6"/>
-      <c r="DB86" s="18">
+      <c r="CY86" s="8"/>
+      <c r="CZ86" s="9"/>
+      <c r="DA86" s="3"/>
+      <c r="DB86" s="7">
         <v>-5</v>
       </c>
-      <c r="DC86" s="19"/>
-      <c r="DD86" s="20"/>
-      <c r="DE86" s="6"/>
-      <c r="DF86" s="18">
+      <c r="DC86" s="8"/>
+      <c r="DD86" s="9"/>
+      <c r="DE86" s="3"/>
+      <c r="DF86" s="7">
         <v>-5</v>
       </c>
-      <c r="DG86" s="19"/>
-      <c r="DH86" s="20"/>
-      <c r="DI86" s="6"/>
-      <c r="DJ86" s="6"/>
-      <c r="DK86" s="6"/>
-      <c r="DL86" s="6"/>
-      <c r="DM86" s="6"/>
-      <c r="DN86" s="6"/>
-      <c r="DO86" s="18">
+      <c r="DG86" s="8"/>
+      <c r="DH86" s="9"/>
+      <c r="DI86" s="3"/>
+      <c r="DJ86" s="3"/>
+      <c r="DK86" s="3"/>
+      <c r="DL86" s="3"/>
+      <c r="DM86" s="3"/>
+      <c r="DN86" s="3"/>
+      <c r="DO86" s="7">
         <v>-25</v>
       </c>
-      <c r="DP86" s="19"/>
-      <c r="DQ86" s="20"/>
-      <c r="DR86" s="6"/>
-      <c r="DS86" s="18">
+      <c r="DP86" s="8"/>
+      <c r="DQ86" s="9"/>
+      <c r="DR86" s="3"/>
+      <c r="DS86" s="7">
         <v>35</v>
       </c>
-      <c r="DT86" s="19"/>
-      <c r="DU86" s="20"/>
-      <c r="DV86" s="6"/>
-      <c r="DW86" s="18">
+      <c r="DT86" s="8"/>
+      <c r="DU86" s="9"/>
+      <c r="DV86" s="3"/>
+      <c r="DW86" s="7">
         <v>-35</v>
       </c>
-      <c r="DX86" s="19"/>
-      <c r="DY86" s="20"/>
-      <c r="DZ86" s="6"/>
-      <c r="EA86" s="18">
+      <c r="DX86" s="8"/>
+      <c r="DY86" s="9"/>
+      <c r="DZ86" s="3"/>
+      <c r="EA86" s="7">
         <v>-75</v>
       </c>
-      <c r="EB86" s="19"/>
-      <c r="EC86" s="20"/>
-      <c r="ED86" s="6"/>
-      <c r="EE86" s="18">
+      <c r="EB86" s="8"/>
+      <c r="EC86" s="9"/>
+      <c r="ED86" s="3"/>
+      <c r="EE86" s="7">
         <v>15</v>
       </c>
-      <c r="EF86" s="19"/>
-      <c r="EG86" s="20"/>
+      <c r="EF86" s="8"/>
+      <c r="EG86" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="U79:W79"/>
     <mergeCell ref="BG79:BI79"/>
     <mergeCell ref="DB79:DD79"/>
     <mergeCell ref="AC72:AH72"/>
@@ -12117,6 +12112,8 @@
     <mergeCell ref="DW86:DY86"/>
     <mergeCell ref="CC86:CE86"/>
     <mergeCell ref="CG86:CI86"/>
+    <mergeCell ref="AQ86:AS86"/>
+    <mergeCell ref="AU86:AW86"/>
     <mergeCell ref="CK86:CM86"/>
     <mergeCell ref="CO86:CQ86"/>
     <mergeCell ref="CX86:CZ86"/>
@@ -12125,27 +12122,29 @@
     <mergeCell ref="BL86:BN86"/>
     <mergeCell ref="BP86:BR86"/>
     <mergeCell ref="BT86:BV86"/>
-    <mergeCell ref="Z86:AB86"/>
-    <mergeCell ref="AD86:AF86"/>
-    <mergeCell ref="AH86:AJ86"/>
-    <mergeCell ref="AQ86:AS86"/>
-    <mergeCell ref="AU86:AW86"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="AG50:AH50"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="E86:G86"/>
     <mergeCell ref="I86:K86"/>
     <mergeCell ref="M86:O86"/>
-    <mergeCell ref="Q86:S86"/>
+    <mergeCell ref="Z86:AB86"/>
+    <mergeCell ref="AD86:AF86"/>
+    <mergeCell ref="AH86:AJ86"/>
+    <mergeCell ref="U79:W79"/>
+    <mergeCell ref="AQ59:AS59"/>
+    <mergeCell ref="AD59:AF59"/>
     <mergeCell ref="Z59:AB59"/>
     <mergeCell ref="Q59:S59"/>
     <mergeCell ref="M59:O59"/>
     <mergeCell ref="AH59:AJ59"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="BP59:BR59"/>
+    <mergeCell ref="BL59:BN59"/>
     <mergeCell ref="BC59:BE59"/>
     <mergeCell ref="AY59:BA59"/>
     <mergeCell ref="AU59:AW59"/>
-    <mergeCell ref="AQ59:AS59"/>
-    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="E59:G59"/>
     <mergeCell ref="I59:K59"/>
     <mergeCell ref="EE59:EG59"/>
     <mergeCell ref="EA59:EC59"/>
@@ -12160,14 +12159,12 @@
     <mergeCell ref="CG59:CI59"/>
     <mergeCell ref="CC59:CE59"/>
     <mergeCell ref="BT59:BV59"/>
-    <mergeCell ref="BP59:BR59"/>
-    <mergeCell ref="BL59:BN59"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="Q86:S86"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
     <mergeCell ref="C33:H33"/>
@@ -12183,12 +12180,11 @@
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C36 C34:H35 D36:H36 O36 M36 J36:K36 L35 J34:O34 L36 J35:K35 M35:O35 N36" numberStoredAsText="1"/>
+    <ignoredError sqref="C36 C35:H35 D36:H36 O36 M36 J36:K36 L35 J34:O34 L36 J35:K35 M35:O35 N36 D34:H34" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
